--- a/Experiment Results.xlsx
+++ b/Experiment Results.xlsx
@@ -5,20 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32065\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FabricDistBench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E1E074-09AC-4EA6-BEB8-65E80F3AC094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E327569F-3E70-4F65-AB4E-D0090E5BC1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -61,6 +70,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -111,6 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -153,7 +166,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C298AE99-998C-45E8-A771-985D7013133E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -174,23 +187,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -221,7 +221,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14779955-B761-4290-A18B-3C5B2FE6FFC8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -242,23 +242,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -273,13 +260,13 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>733425</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -289,7 +276,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EB11D7C-DFEC-4F30-9FA9-C39A25CB2020}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -310,23 +297,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -346,8 +320,8 @@
         <xdr:to>
           <xdr:col>13</xdr:col>
           <xdr:colOff>428625</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -357,7 +331,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C9FB81-0CF4-4018-A679-99DFE0765FAD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -378,23 +352,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -414,8 +375,8 @@
         <xdr:to>
           <xdr:col>14</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -425,7 +386,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A081DCFD-49C9-408D-A939-C92C40549BEC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -446,23 +407,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -481,9 +429,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:colOff>447675</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -493,7 +441,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48F2260-53CD-4B67-AEAA-29E3E73F6799}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -514,23 +462,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -542,16 +477,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>16</xdr:col>
+          <xdr:col>17</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
+          <xdr:col>17</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -561,7 +496,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A3FFD63-F034-4C93-8577-6DDB08F0CAB1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -582,23 +517,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -610,13 +532,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>17</xdr:col>
+          <xdr:col>18</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
+          <xdr:col>18</xdr:col>
           <xdr:colOff>419100</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
@@ -629,7 +551,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8909FC7-C53B-479D-8E22-4126F5FBE473}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -650,23 +572,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -678,13 +587,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>18</xdr:col>
+          <xdr:col>19</xdr:col>
           <xdr:colOff>323850</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>18</xdr:col>
+          <xdr:col>19</xdr:col>
           <xdr:colOff>485775</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
@@ -697,7 +606,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23691E29-0DD6-4CA6-8710-B3C6331FC548}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -718,23 +627,120 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Object 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>447675</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1081" name="Object 57" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4961306D-8BEE-4601-8E5B-92BF6A1E43F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1008,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:S27"/>
+  <dimension ref="C2:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1019,19 +1025,19 @@
     <col min="13" max="13" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.2">
       <c r="L2" s="2"/>
       <c r="M2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>6</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -1046,133 +1052,461 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.2">
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
         <v>209</v>
       </c>
-    </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>780</v>
+      </c>
+      <c r="O4" s="3">
+        <f>M4/N4/L4</f>
+        <v>0.26794871794871794</v>
+      </c>
+      <c r="P4" s="3">
+        <f>1/N4</f>
+        <v>1.2820512820512821E-3</v>
+      </c>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>1</v>
+      </c>
       <c r="M5">
         <v>287</v>
       </c>
-    </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>780</v>
+      </c>
+      <c r="O5" s="3">
+        <f>M5/N5/L5</f>
+        <v>0.36794871794871797</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5:P27" si="0">1/N5</f>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>1</v>
+      </c>
       <c r="M6">
         <v>337</v>
       </c>
-    </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>780</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" ref="O6:O27" si="1">M6/N6/L6</f>
+        <v>0.43205128205128207</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>1</v>
+      </c>
       <c r="M7">
         <v>426</v>
       </c>
-    </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>780</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5461538461538461</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>1</v>
+      </c>
       <c r="M8">
         <v>524</v>
       </c>
-    </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>780</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.67179487179487174</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>1</v>
+      </c>
       <c r="M9">
         <v>613</v>
       </c>
-    </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>780</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.78589743589743588</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>1</v>
+      </c>
       <c r="M10">
         <v>725</v>
       </c>
-    </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>780</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.92948717948717952</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>1</v>
+      </c>
       <c r="M11">
         <v>770</v>
       </c>
-    </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>780</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.98717948717948723</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.2">
       <c r="L12">
         <v>2</v>
       </c>
       <c r="M12">
         <v>426</v>
       </c>
-    </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>780</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.27307692307692305</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>2</v>
+      </c>
       <c r="M13">
         <v>613</v>
       </c>
-    </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>780</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.39294871794871794</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>2</v>
+      </c>
       <c r="M14">
         <v>852</v>
       </c>
-    </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>780</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5461538461538461</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>2</v>
+      </c>
       <c r="M15">
         <v>1095</v>
       </c>
-    </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>780</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.70192307692307687</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>2</v>
+      </c>
       <c r="M16">
         <v>1278</v>
       </c>
-    </row>
-    <row r="17" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>780</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.81923076923076921</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>2</v>
+      </c>
       <c r="M17">
         <v>1338</v>
       </c>
-    </row>
-    <row r="18" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>780</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.85769230769230764</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>2</v>
+      </c>
       <c r="M18">
         <v>1446</v>
       </c>
-    </row>
-    <row r="19" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>780</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.92692307692307696</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>2</v>
+      </c>
       <c r="M19">
         <v>1478</v>
       </c>
-    </row>
-    <row r="20" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>780</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9474358974358974</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L20">
         <v>4</v>
       </c>
       <c r="M20">
         <v>426</v>
       </c>
-    </row>
-    <row r="21" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>780</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13653846153846153</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>4</v>
+      </c>
       <c r="M21">
         <v>613</v>
       </c>
-    </row>
-    <row r="22" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>780</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.19647435897435897</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>4</v>
+      </c>
       <c r="M22">
         <v>852</v>
       </c>
-    </row>
-    <row r="23" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>780</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.27307692307692305</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>4</v>
+      </c>
       <c r="M23">
         <v>1095</v>
       </c>
-    </row>
-    <row r="24" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>780</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.35096153846153844</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>4</v>
+      </c>
       <c r="M24">
         <v>1278</v>
       </c>
-    </row>
-    <row r="25" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>780</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4096153846153846</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>4</v>
+      </c>
       <c r="M25">
         <v>1338</v>
       </c>
-    </row>
-    <row r="26" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>780</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.42884615384615382</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>4</v>
+      </c>
       <c r="M26">
         <v>1446</v>
       </c>
-    </row>
-    <row r="27" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>780</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.46346153846153848</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>4</v>
+      </c>
       <c r="M27">
         <v>1478</v>
+      </c>
+      <c r="N27">
+        <v>780</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4737179487179487</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2820512820512821E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1244,13 +1578,13 @@
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>733425</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1274,8 +1608,8 @@
               <to>
                 <xdr:col>13</xdr:col>
                 <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1299,8 +1633,8 @@
               <to>
                 <xdr:col>14</xdr:col>
                 <xdr:colOff>438150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1323,9 +1657,9 @@
               </from>
               <to>
                 <xdr:col>15</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1341,16 +1675,16 @@
           <objectPr defaultSize="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>16</xdr:col>
+                <xdr:col>17</xdr:col>
                 <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
+                <xdr:col>17</xdr:col>
                 <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1366,13 +1700,13 @@
           <objectPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>17</xdr:col>
+                <xdr:col>18</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>17</xdr:col>
+                <xdr:col>18</xdr:col>
                 <xdr:colOff>419100</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
@@ -1391,13 +1725,13 @@
           <objectPr defaultSize="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>18</xdr:col>
+                <xdr:col>19</xdr:col>
                 <xdr:colOff>323850</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
+                <xdr:col>19</xdr:col>
                 <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
@@ -1410,6 +1744,56 @@
         <oleObject progId="Equation.DSMT4" shapeId="1033" r:id="rId20"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1034" r:id="rId22">
+          <objectPr defaultSize="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1034" r:id="rId22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1081" r:id="rId24">
+          <objectPr defaultSize="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1081" r:id="rId24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
--- a/Experiment Results.xlsx
+++ b/Experiment Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FabricDistBench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E327569F-3E70-4F65-AB4E-D0090E5BC1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF0F21E-B99F-4F9F-858E-924D7D525C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>\pm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>Measure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The throughput and latency of an endorsing peer with c=1,2,4 CPU cores in cluster one</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,15 +119,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -477,13 +484,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>17</xdr:col>
+          <xdr:col>19</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
+          <xdr:col>19</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
@@ -532,13 +539,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>18</xdr:col>
+          <xdr:col>21</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>18</xdr:col>
+          <xdr:col>21</xdr:col>
           <xdr:colOff>419100</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
@@ -552,61 +559,6 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>19</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>19</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1033" name="Object 9" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1033"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -698,13 +650,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>180975</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
+          <xdr:colOff>742950</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
@@ -716,7 +668,447 @@
                   <a14:compatExt spid="_x0000_s1081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4961306D-8BEE-4601-8E5B-92BF6A1E43F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1082" name="Object 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2351CA-770E-462C-AF76-F3EF92A5AEF4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>876300</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1083" name="Object 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E618541-D253-4C2A-959E-65229AEC736E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1084" name="Object 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA1196B-3351-4749-A7B3-866C1828E4C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1085" name="Object 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1085"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E62D2EB-5741-4388-BD33-36256DC49A5D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>26</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>26</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1086" name="Object 62" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1086"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CB9778-1A55-4DCD-8ADE-EC0C1960D0E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>22</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>22</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1087" name="Object 63" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1087"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5BB3F9-CABC-42A4-8E23-84F9A91DC2DE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1088" name="Object 64" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1088"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D418ED84-4B57-4B26-89F9-9100A0BDAF8E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1089" name="Object 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1089"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D36F36D-0EBB-45CD-9526-F6F0C4EE523B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1014,30 +1406,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:T27"/>
+  <dimension ref="C1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="13" max="13" width="17.5" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="12.625" customWidth="1"/>
+    <col min="19" max="19" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="L2" s="2"/>
+    <row r="1" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="M1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+    </row>
+    <row r="2" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="L2" s="3"/>
       <c r="M2" t="s">
         <v>4</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>6</v>
       </c>
-      <c r="T2" t="s">
+      <c r="X2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="3:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -1050,9 +1464,9 @@
       <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="3:27" x14ac:dyDescent="0.2">
       <c r="L4">
         <v>1</v>
       </c>
@@ -1062,17 +1476,25 @@
       <c r="N4">
         <v>780</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <f>M4/N4/L4</f>
         <v>0.26794871794871794</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <f>1/N4</f>
         <v>1.2820512820512821E-3</v>
       </c>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="Q4" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="R4" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="S4" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:27" x14ac:dyDescent="0.2">
       <c r="L5">
         <v>1</v>
       </c>
@@ -1082,16 +1504,25 @@
       <c r="N5">
         <v>780</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <f>M5/N5/L5</f>
         <v>0.36794871794871797</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <f t="shared" ref="P5:P27" si="0">1/N5</f>
         <v>1.2820512820512821E-3</v>
       </c>
-    </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="R5">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="S5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:27" x14ac:dyDescent="0.2">
       <c r="L6">
         <v>1</v>
       </c>
@@ -1101,16 +1532,25 @@
       <c r="N6">
         <v>780</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <f t="shared" ref="O6:O27" si="1">M6/N6/L6</f>
         <v>0.43205128205128207</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
-    </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="R6">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="S6">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:27" x14ac:dyDescent="0.2">
       <c r="L7">
         <v>1</v>
       </c>
@@ -1120,16 +1560,25 @@
       <c r="N7">
         <v>780</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="2">
         <f t="shared" si="1"/>
         <v>0.5461538461538461</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
-    </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="R7">
+        <v>1.5E-3</v>
+      </c>
+      <c r="S7">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:27" x14ac:dyDescent="0.2">
       <c r="L8">
         <v>1</v>
       </c>
@@ -1139,16 +1588,25 @@
       <c r="N8">
         <v>780</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="2">
         <f t="shared" si="1"/>
         <v>0.67179487179487174</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
-    </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="R8">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="S8">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:27" x14ac:dyDescent="0.2">
       <c r="L9">
         <v>1</v>
       </c>
@@ -1158,16 +1616,25 @@
       <c r="N9">
         <v>780</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <f t="shared" si="1"/>
         <v>0.78589743589743588</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
-    </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="Q9">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="R9">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="S9">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:27" x14ac:dyDescent="0.2">
       <c r="L10">
         <v>1</v>
       </c>
@@ -1177,16 +1644,25 @@
       <c r="N10">
         <v>780</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <f t="shared" si="1"/>
         <v>0.92948717948717952</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
-    </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="R10">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="S10">
+        <v>1.2699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:27" x14ac:dyDescent="0.2">
       <c r="L11">
         <v>1</v>
       </c>
@@ -1196,16 +1672,25 @@
       <c r="N11">
         <v>780</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <f t="shared" si="1"/>
         <v>0.98717948717948723</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
-    </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="R11">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="S11">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:27" x14ac:dyDescent="0.2">
       <c r="L12">
         <v>2</v>
       </c>
@@ -1215,16 +1700,16 @@
       <c r="N12">
         <v>780</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <f t="shared" si="1"/>
         <v>0.27307692307692305</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:27" x14ac:dyDescent="0.2">
       <c r="L13">
         <v>2</v>
       </c>
@@ -1234,16 +1719,16 @@
       <c r="N13">
         <v>780</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="2">
         <f t="shared" si="1"/>
         <v>0.39294871794871794</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:27" x14ac:dyDescent="0.2">
       <c r="L14">
         <v>2</v>
       </c>
@@ -1253,16 +1738,16 @@
       <c r="N14">
         <v>780</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="2">
         <f t="shared" si="1"/>
         <v>0.5461538461538461</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:27" x14ac:dyDescent="0.2">
       <c r="L15">
         <v>2</v>
       </c>
@@ -1272,16 +1757,16 @@
       <c r="N15">
         <v>780</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="2">
         <f t="shared" si="1"/>
         <v>0.70192307692307687</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:27" x14ac:dyDescent="0.2">
       <c r="L16">
         <v>2</v>
       </c>
@@ -1291,11 +1776,11 @@
       <c r="N16">
         <v>780</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="2">
         <f t="shared" si="1"/>
         <v>0.81923076923076921</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
@@ -1310,11 +1795,11 @@
       <c r="N17">
         <v>780</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="2">
         <f t="shared" si="1"/>
         <v>0.85769230769230764</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
@@ -1329,11 +1814,11 @@
       <c r="N18">
         <v>780</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="2">
         <f t="shared" si="1"/>
         <v>0.92692307692307696</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
@@ -1348,11 +1833,11 @@
       <c r="N19">
         <v>780</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="2">
         <f t="shared" si="1"/>
         <v>0.9474358974358974</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
@@ -1367,11 +1852,11 @@
       <c r="N20">
         <v>780</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="2">
         <f t="shared" si="1"/>
         <v>0.13653846153846153</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
@@ -1386,11 +1871,11 @@
       <c r="N21">
         <v>780</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="2">
         <f t="shared" si="1"/>
         <v>0.19647435897435897</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
@@ -1405,11 +1890,11 @@
       <c r="N22">
         <v>780</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="2">
         <f t="shared" si="1"/>
         <v>0.27307692307692305</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
@@ -1424,11 +1909,11 @@
       <c r="N23">
         <v>780</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="2">
         <f t="shared" si="1"/>
         <v>0.35096153846153844</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
@@ -1443,11 +1928,11 @@
       <c r="N24">
         <v>780</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="2">
         <f t="shared" si="1"/>
         <v>0.4096153846153846</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
@@ -1462,11 +1947,11 @@
       <c r="N25">
         <v>780</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="2">
         <f t="shared" si="1"/>
         <v>0.42884615384615382</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
@@ -1481,11 +1966,11 @@
       <c r="N26">
         <v>780</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="2">
         <f t="shared" si="1"/>
         <v>0.46346153846153848</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
@@ -1500,18 +1985,19 @@
       <c r="N27">
         <v>780</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="2">
         <f t="shared" si="1"/>
         <v>0.4737179487179487</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="2">
         <f t="shared" si="0"/>
         <v>1.2820512820512821E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M1:AA1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1675,13 +2161,13 @@
           <objectPr defaultSize="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>17</xdr:col>
+                <xdr:col>19</xdr:col>
                 <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>17</xdr:col>
+                <xdr:col>19</xdr:col>
                 <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
@@ -1700,13 +2186,13 @@
           <objectPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>18</xdr:col>
+                <xdr:col>21</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
+                <xdr:col>21</xdr:col>
                 <xdr:colOff>419100</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
@@ -1721,33 +2207,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1033" r:id="rId20">
+        <oleObject progId="Equation.DSMT4" shapeId="1034" r:id="rId20">
           <objectPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>323850</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1033" r:id="rId20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1034" r:id="rId22">
-          <objectPr defaultSize="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -1766,23 +2227,23 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1034" r:id="rId22"/>
+        <oleObject progId="Equation.DSMT4" shapeId="1034" r:id="rId20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1081" r:id="rId24">
-          <objectPr defaultSize="0" r:id="rId25">
+        <oleObject progId="Equation.DSMT4" shapeId="1081" r:id="rId22">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>16</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>180975</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>16</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
+                <xdr:colOff>742950</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
@@ -1791,7 +2252,207 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1081" r:id="rId24"/>
+        <oleObject progId="Equation.DSMT4" shapeId="1081" r:id="rId22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1082" r:id="rId24">
+          <objectPr defaultSize="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1082" r:id="rId24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1083" r:id="rId26">
+          <objectPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1083" r:id="rId26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1084" r:id="rId28">
+          <objectPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1084" r:id="rId28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1085" r:id="rId29">
+          <objectPr defaultSize="0" r:id="rId30">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1085" r:id="rId29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1086" r:id="rId31">
+          <objectPr defaultSize="0" r:id="rId32">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>26</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>26</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1086" r:id="rId31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1087" r:id="rId33">
+          <objectPr defaultSize="0" r:id="rId34">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>22</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>22</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1087" r:id="rId33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1088" r:id="rId35">
+          <objectPr defaultSize="0" r:id="rId36">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1088" r:id="rId35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1089" r:id="rId37">
+          <objectPr defaultSize="0" r:id="rId34">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1089" r:id="rId37"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/Experiment Results.xlsx
+++ b/Experiment Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PhaseBench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A250A7-BD2B-4912-916B-BEAD5419F992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F32309E-AF10-42A2-9D7C-0D24B84C0534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="4530" windowWidth="19590" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Measure derived</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,10 @@
   </si>
   <si>
     <t>The throughput and latency of an endorsing peer with c=1,2,4 CPU cores in cluster one</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The throughput and latency of an endorsing peer with c=1,2,4 CPU cores in cluster two</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,13 +120,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -990,7 +994,7 @@
                   <a14:compatExt spid="_x0000_s1090"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35042A7B-3796-40CE-8532-359058AD942A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1045,7 +1049,7 @@
                   <a14:compatExt spid="_x0000_s1091"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{669BAC66-0B52-479C-845E-8EEA3D3040A3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1100,7 +1104,7 @@
                   <a14:compatExt spid="_x0000_s1092"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89CD6C12-2F90-426B-AA90-4A8C7257E7EE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1155,7 +1159,117 @@
                   <a14:compatExt spid="_x0000_s1093"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0660B9F7-E91F-4DA2-A6B6-309A64E9A9B2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1094" name="Object 70" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1094"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D3D214-AC5E-439F-86B0-BC3EB8BEB64C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>733425</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1095" name="Object 71" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1095"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B61E0D7B-955F-4F73-AD91-5B8C0F3B8275}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1453,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:T27"/>
+  <dimension ref="B1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1472,75 +1586,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
     </row>
     <row r="3" spans="2:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4">
@@ -2356,6 +2470,69 @@
       </c>
       <c r="N27">
         <v>0.29859999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2847,6 +3024,56 @@
         <oleObject progId="Equation.DSMT4" shapeId="1093" r:id="rId40"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1094" r:id="rId42">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1094" r:id="rId42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1095" r:id="rId43">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>733425</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1095" r:id="rId43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
--- a/Experiment Results.xlsx
+++ b/Experiment Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PhaseBench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F32309E-AF10-42A2-9D7C-0D24B84C0534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9313D979-1739-48AC-A1DC-D5066EFC16A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="4530" windowWidth="19590" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Measure derived</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -127,6 +127,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1214,7 +1218,7 @@
                   <a14:compatExt spid="_x0000_s1094"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D3D214-AC5E-439F-86B0-BC3EB8BEB64C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1258,8 +1262,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>733425</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1269,7 +1273,337 @@
                   <a14:compatExt spid="_x0000_s1095"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B61E0D7B-955F-4F73-AD91-5B8C0F3B8275}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1096" name="Object 72" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1096"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D72990FD-73E4-4A6C-B577-8D4CD9D31A71}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>438150</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1097" name="Object 73" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E342CBE-21F6-4F20-B78F-E68388522BFB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>447675</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1118" name="Object 94" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1118"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2889EC48-3C9E-49E8-891B-8F70B4EE38C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>742950</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1119" name="Object 95" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1119"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0F4912-8377-4226-8D0A-DB4E95AA94F2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1120" name="Object 96" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1120"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286C3A91-C07E-470B-A49D-9399FD366324}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>876300</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1121" name="Object 97" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1121"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1094A0B6-74BA-4C02-81A8-08AA6AAED9C0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1567,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:T40"/>
+  <dimension ref="B1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2473,70 +2807,409 @@
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
+      <c r="B31" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+      <c r="C32" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
         <v>214</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>470</v>
+      </c>
+      <c r="E34" s="1">
+        <f>C34/D34/B34</f>
+        <v>0.4553191489361702</v>
+      </c>
+      <c r="F34" s="1">
+        <f>1/D34</f>
+        <v>2.1276595744680851E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
         <v>244</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>470</v>
+      </c>
+      <c r="E35" s="1">
+        <f>C35/D35/B35</f>
+        <v>0.51914893617021274</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" ref="F35:F53" si="2">1/D35</f>
+        <v>2.1276595744680851E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
         <v>312</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>470</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" ref="E36:E53" si="3">C36/D36/B36</f>
+        <v>0.66382978723404251</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680851E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
         <v>352</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>470</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="3"/>
+        <v>0.74893617021276593</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680851E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
         <v>423</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>470</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680851E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
         <v>460</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>470</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="3"/>
+        <v>0.97872340425531912</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680851E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>2</v>
       </c>
+      <c r="C40">
+        <v>244</v>
+      </c>
+      <c r="D40">
+        <v>470</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="3"/>
+        <v>0.25957446808510637</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680851E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>312</v>
+      </c>
+      <c r="D41">
+        <v>470</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="3"/>
+        <v>0.33191489361702126</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680851E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>352</v>
+      </c>
+      <c r="D42">
+        <v>470</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="3"/>
+        <v>0.37446808510638296</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680851E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>423</v>
+      </c>
+      <c r="D43">
+        <v>470</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680851E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>460</v>
+      </c>
+      <c r="D44">
+        <v>470</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="3"/>
+        <v>0.48936170212765956</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680851E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>566</v>
+      </c>
+      <c r="D45">
+        <v>470</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="3"/>
+        <v>0.60212765957446812</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680851E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>670</v>
+      </c>
+      <c r="D46">
+        <v>470</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="3"/>
+        <v>0.71276595744680848</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680851E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>244</v>
+      </c>
+      <c r="D47">
+        <v>470</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12978723404255318</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680851E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>312</v>
+      </c>
+      <c r="D48">
+        <v>470</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="3"/>
+        <v>0.16595744680851063</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680851E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>352</v>
+      </c>
+      <c r="D49">
+        <v>470</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="3"/>
+        <v>0.18723404255319148</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680851E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>423</v>
+      </c>
+      <c r="D50">
+        <v>470</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="3"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680851E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>460</v>
+      </c>
+      <c r="D51">
+        <v>470</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="3"/>
+        <v>0.24468085106382978</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680851E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>566</v>
+      </c>
+      <c r="D52">
+        <v>470</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="3"/>
+        <v>0.30106382978723406</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680851E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>670</v>
+      </c>
+      <c r="D53">
+        <v>470</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35638297872340424</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680851E-3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C32:I32"/>
     <mergeCell ref="B1:T1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:I2"/>
@@ -3063,8 +3736,8 @@
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>733425</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3074,6 +3747,156 @@
         <oleObject progId="Equation.DSMT4" shapeId="1095" r:id="rId43"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1096" r:id="rId44">
+          <objectPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1096" r:id="rId44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1097" r:id="rId45">
+          <objectPr defaultSize="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>438150</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1097" r:id="rId45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1118" r:id="rId46">
+          <objectPr defaultSize="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1118" r:id="rId46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1119" r:id="rId47">
+          <objectPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>742950</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1119" r:id="rId47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1120" r:id="rId48">
+          <objectPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1120" r:id="rId48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1121" r:id="rId49">
+          <objectPr defaultSize="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1121" r:id="rId49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>